--- a/TDD_examples/CASE_1_ITER_like_LTS/conductor_diagnostic.xlsx
+++ b/TDD_examples/CASE_1_ITER_like_LTS/conductor_diagnostic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/SC2/Description_of_Components/ITER_TF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\TESI\OPENSC2-main\TDD_examples\CASE_1_ITER_like_LTS\conductor1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0D969C7C-59B6-4D41-9C8A-C3C1D111D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830FE132-7B51-4E43-8CBE-866F0DBFB23C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840C08B-1805-4E14-8EBA-EAC32A3A6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Space" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,20 +565,20 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:E13"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="8" customWidth="1"/>
     <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="4"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f>[1]CONDUCTOR_files!$A$1</f>
         <v>CONDUCTOR</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="str">
         <f>[2]TRANSIENT!A$2</f>
         <v>Variable name</v>
@@ -626,7 +626,7 @@
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -695,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -709,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -726,7 +726,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -754,7 +754,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -787,18 +787,18 @@
       <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.90625" style="13"/>
-    <col min="13" max="16384" width="8.90625" style="4"/>
+    <col min="6" max="12" width="8.88671875" style="13"/>
+    <col min="13" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f>Space!A1</f>
         <v>CONDUCTOR</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="str">
         <f>Space!A3</f>
         <v>Variable name</v>
@@ -846,7 +846,7 @@
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -874,7 +874,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -916,7 +916,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -972,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>

--- a/TDD_examples/CASE_1_ITER_like_LTS/conductor_diagnostic.xlsx
+++ b/TDD_examples/CASE_1_ITER_like_LTS/conductor_diagnostic.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\TESI\OPENSC2-main\TDD_examples\CASE_1_ITER_like_LTS\conductor1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_1_ITER_like_LTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840C08B-1805-4E14-8EBA-EAC32A3A6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2B0AE-81A3-4EA9-8AD8-54D7BAAEA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Space" sheetId="1" r:id="rId1"/>
-    <sheet name="Time" sheetId="2" r:id="rId2"/>
+    <sheet name="Spatial_distribution" sheetId="1" r:id="rId1"/>
+    <sheet name="Time_evolution" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,52 +178,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,9 +231,8 @@
     <sheetNames>
       <sheetName val="CONDUCTOR_files"/>
       <sheetName val="CONDUCTOR_input"/>
+      <sheetName val="CONDUCTOR_operation"/>
       <sheetName val="CONDUCTOR_COUPLING"/>
-      <sheetName val="General Format"/>
-      <sheetName val="CONDUCTOR"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -259,10 +245,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -565,69 +550,69 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="str">
         <f>[1]CONDUCTOR_files!$A$1</f>
         <v>CONDUCTOR</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="13">
         <f>SUM(E2:E2)</f>
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="11">
+      <c r="E1" s="9">
         <f>[1]CONDUCTOR_files!E$1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="str">
         <f>[2]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="8" t="str">
         <f>[2]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f>[2]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="8" t="str">
         <f>[2]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -636,12 +621,12 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="11"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -652,11 +637,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -666,11 +651,11 @@
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -680,11 +665,11 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -694,11 +679,11 @@
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -708,11 +693,11 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -722,11 +707,11 @@
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="5">
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -736,11 +721,11 @@
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -750,11 +735,11 @@
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="5">
         <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -764,7 +749,7 @@
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="5">
         <v>30</v>
       </c>
     </row>
@@ -784,205 +769,205 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.88671875" style="13"/>
-    <col min="13" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="12" width="8.85546875" style="5"/>
+    <col min="13" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
-        <f>Space!A1</f>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="str">
+        <f>Spatial_distribution!A1</f>
         <v>CONDUCTOR</v>
       </c>
-      <c r="B1" s="11">
-        <f>Space!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11">
-        <f>Space!E1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11">
-        <f>Space!E2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="str">
-        <f>Space!A3</f>
+      <c r="B1" s="9">
+        <f>Spatial_distribution!B1</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="9">
+        <f>Spatial_distribution!E1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9">
+        <f>Spatial_distribution!E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>Spatial_distribution!A3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f>Space!B3</f>
+      <c r="B3" s="7" t="str">
+        <f>Spatial_distribution!B3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="9" t="str">
-        <f>Space!C3</f>
+      <c r="C3" s="7" t="str">
+        <f>Spatial_distribution!C3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f>Space!D3</f>
+      <c r="D3" s="7" t="str">
+        <f>Spatial_distribution!D3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="11" t="str">
-        <f>Space!E3</f>
+      <c r="E3" s="9" t="str">
+        <f>Spatial_distribution!E3</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
         <v>2.35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
         <v>8</v>
       </c>
     </row>
